--- a/biology/Médecine/Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail/Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail.xlsx
+++ b/biology/Médecine/Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail/Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
+          <t>Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Agence française de sécurité sanitaire de l'environnement et du travail (Afsset) a été créée en 2005 après l'élargissement des missions de l'AFSSE, créée en 2001, au champ de la santé au travail. L'agence a fusionné au 1er juillet 2010 avec l'Agence française de sécurité sanitaire des aliments (Afssa) pour former l'Agence nationale chargée de la sécurité sanitaire de l'alimentation, de l'environnement et du travail (Anses).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
+          <t>Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Établissement public administratif de l'état placé sous la tutelle des ministères de la Santé, du Travail et de l'Ecologie, l’agence compte parmi les agences françaises de sécurité sanitaire. L'agence française de sécurité sanitaire de l'environnement et du travail a pour but d'assurer la protection de la santé humaine dans les milieux concernés. Pour y parvenir l’agence :
 évalue les risques dans ces domaines de compétences, notamment les risques liés aux produits chimiques,
@@ -520,12 +534,82 @@
 fournit au Gouvernement, par tout moyen, l’expertise et l’appui scientifique et technique nécessaires à l’élaboration et à la mise en œuvre des dispositions législatives et réglementaires, des règles communautaires et des accords internationaux relevant de son domaine de compétence,
 suscite le débat public qu'elle nourrit et informe le public,
 coordonne et anime un réseau de plus d’une vingtaine d'organismes partenaires disposant des capacités d’expertise dans ses domaines de compétence : INRS, INERIS, CSTB, INSERM, Afssa, etc.
-Disposant de crédits incitatifs pour la production de connaissances, elle travaille de concert avec la communauté scientifique française et internationale, pour notamment appuyer la mise en œuvre du PNSE (plan national santé environnement), du plan santé travail et du règlement REACh. Elle partage avec des pays européens des programmes de recherche comme nanogenotox portant sur les nanomatériaux. Ses travaux, avis et recommandations sont rendus publics, consultables sur son site Internet[1].
-Sur son indépendance et sa transparence
-À la suite d'un rapport diligenté par l'Inspection générale de l'Environnement et celle des Affaires sociales [2] critiquant l'une de ses expertises et dénonçant certains liens directs entretenus entre les scientifiques sollicités par l'Agence et les opérateurs de téléphonie mobile à l'occasion d'une expertise sur le sujet, l'agence s'est engagée dans une refonte de ses expertises pour en garantir la solidité. 
+Disposant de crédits incitatifs pour la production de connaissances, elle travaille de concert avec la communauté scientifique française et internationale, pour notamment appuyer la mise en œuvre du PNSE (plan national santé environnement), du plan santé travail et du règlement REACh. Elle partage avec des pays européens des programmes de recherche comme nanogenotox portant sur les nanomatériaux. Ses travaux, avis et recommandations sont rendus publics, consultables sur son site Internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sur son indépendance et sa transparence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite d'un rapport diligenté par l'Inspection générale de l'Environnement et celle des Affaires sociales  critiquant l'une de ses expertises et dénonçant certains liens directs entretenus entre les scientifiques sollicités par l'Agence et les opérateurs de téléphonie mobile à l'occasion d'une expertise sur le sujet, l'agence s'est engagée dans une refonte de ses expertises pour en garantir la solidité. 
 Il s'agit en tout premier lieu de l'application de la norme NFX 50 110 à toutes les expertises de l'agence.  Cette norme oblige entre autres à  tracer les avis divergeant dans les rendus de l'expertise. Différenciant ainsi l'expertise collégiale (retraçant l'avis consensuel des scientifiques) de l'expertise collective (retraçant l'ensemble des avis). La refonte du modèle des évaluations du risque se poursuit avec la création en Mai 2008 du Decid, département hybride de communication et de sciences sociales qui porte les voix de la société dans l'agence, étudie le risque et informe les citoyens. En octobre 2008, l'Afsset signe la Charte de l'ouverture de l'expertise à la société avec l'INERIS et l'IRSN qui permet de prendre en compte les savoirs, les attentes, les questionnements des associations dans les expertises. C'est l'entrée de la littérature grise dans l'expertise. Le Decid développe un programme de recherche en sciences sociales avec l'Ecole des Hautes en Sciences Sociales EHESS pour modéliser les crises, c'est la naissance du Marloweb en collaboration avec Francis Chateauraynaud sorte d'observatoire informatisé des crises, avec Yannick Barthes et l'Ecole des mines-CNRS et Paris Dauphine pour retracer l'histoire des mobilisations sociétales, avec l'Ecole Sciences Po et la chaire de développement durable de Paris pour réunir lors des colloques internationaux sciences-décisions et société. 
-Avis
-Parmi les avis de l'agence on notera : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les avis de l'agence on notera : 
 Fibres fines et courtes d'amiante en septembre 2009,
 Cancers et environnement en 2008 et 2009,
 Nanomatériaux dans l'environnement en mars 2010 (dernier volet d'une trilogie débutée en 2006) qui marque son positionnement de leader européen sur le sujet.
@@ -541,62 +625,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son conseil d'administration[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son conseil d'administration.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agence_française_de_sécurité_sanitaire_de_l'environnement_et_du_travail</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agence_fran%C3%A7aise_de_s%C3%A9curit%C3%A9_sanitaire_de_l%27environnement_et_du_travail</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Michèle Froment-Védrine (2002- 2008)
 Henri Poinsignon (2008)
